--- a/techniqo/data_new_ticker/LEMONTREE.xlsx
+++ b/techniqo/data_new_ticker/LEMONTREE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G603"/>
+  <dimension ref="A1:G605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21531,6 +21531,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="C604" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="D604" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="E604" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F604" t="n">
+        <v>1529545</v>
+      </c>
+      <c r="G604" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C605" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D605" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="E605" t="n">
+        <v>29</v>
+      </c>
+      <c r="F605" t="n">
+        <v>776785</v>
+      </c>
+      <c r="G605" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/LEMONTREE.xlsx
+++ b/techniqo/data_new_ticker/LEMONTREE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G605"/>
+  <dimension ref="A1:G607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21581,6 +21581,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>29</v>
+      </c>
+      <c r="C606" t="n">
+        <v>29</v>
+      </c>
+      <c r="D606" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="E606" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="F606" t="n">
+        <v>477346</v>
+      </c>
+      <c r="G606" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C607" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D607" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="E607" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F607" t="n">
+        <v>584733</v>
+      </c>
+      <c r="G607" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
